--- a/biology/Médecine/Ibrahima_Kourouma/Ibrahima_Kourouma.xlsx
+++ b/biology/Médecine/Ibrahima_Kourouma/Ibrahima_Kourouma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ibrahim Kourouma, né le 15 décembre 1966 à Beyla, une localité de l'extrême sud est de la Guinée frontalière avec la république de Côte d'Ivoire, est un homme politique et pharmacien guinéen.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibrahima Kourouma est originaire de la préfecture de Beyla, en Guinée forestière. Parti en Côte d'Ivoire dès l'enfance, il va y suivre des études qui vont lui permettre de décrocher en 1985 son Brevet d'études du premier cycle (BEPC) au Collège d'orientation de Cocody (Abidjan).
 De retour en Guinée, il réussit à la seconde partie du baccalauréat, option sciences expérimentales, au lycée Imprimerie de Conakry au cours de l'année scolaire 1986-1987.
@@ -523,7 +537,7 @@
 Derrière cette nomination se dessinait la nécessité d'entreprendre toutes les réformes nécessaires à la qualification du système scolaire. Ibrahima Kourouma a durant ses années d'étudiant été coorganisateur du Congrès panafricain des étudiants à Bamako (1992) et fondateur du Cercle universitaire de Conakry pour la promotion des sports et de la culture. Durant les années 2000, aussi bien sous le régime de Lansana Conté (1984-2008) que sous celui des militaires (2008-2010), Ibrahim Kourouma a participé à plusieurs conférences et séminaires : sur la paix organisée par San Egidio à Rome (Italie), sur l'évaluation et la formation sur les produits des laboratoires ROSA Phytopharma et Biocides à Marrakech (Maroc) puis plus à Dakar (Sénégal).
 Par ailleurs, titulaire de pharmacie Elohim, sise à Lambayi, un quartier de la haute banlieue de Conakry, il est membre du Bureau exécutif de l'Union nationale des pharmaciens de Guinée (UNAPHARM), chargé de la réglementation, de la législation et de la fiscalité.
 Durant sa carrière, entre 2001 et 2003, Ibrahima Kourouma a été délégué médical de THETAPHARM-France en Guinée. À ce titre, il était chargé de la promotion des molécules de l'agence au niveau national mais aussi de veiller à la qualité des relations entre l'agence et différents centres hospitaliers de son pays. Sa mission lui ouvrira les portes pour coordonner THETAPHARM-France en Guinée où il devait assurer la formation des délégués médicaux, suivre les rapports entre les grossistes, élaborer le plan d'action annuel de l'agence et en assurer la gestion du personnel.
-En Avril 2022, Ibrahima Kourouma est écroué. Il est poursuivis pour des faits présumés de détournement et complicité de détournement de deniers publics, enrichissement illicite, corruption et blanchiment[1].
+En Avril 2022, Ibrahima Kourouma est écroué. Il est poursuivis pour des faits présumés de détournement et complicité de détournement de deniers publics, enrichissement illicite, corruption et blanchiment.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Ministre de l'Enseignement pré-universitaire et de l'Éducation civique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la tête de l'un des départements les plus stratégiques dans la politique de redressement de son pays depuis janvier 2011, son action a conduit à réduire les fraudes aux examens et le trafic de faux diplômes avec des sanctions systématiques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la tête de l'un des départements les plus stratégiques dans la politique de redressement de son pays depuis janvier 2011, son action a conduit à réduire les fraudes aux examens et le trafic de faux diplômes avec des sanctions systématiques.
 Le département de l'enseignement pré-universitaire et de l'éducation civique a aménagé dans un nouveau bâtiment, jouxtant les services de la présidence. Ibrahima Kourouma remplace le porte-parole du gouvernement dans la lecture du communiqué du conseil des ministres, quand le titulaire du poste se trouve en mission à l'extérieur du pays.
 </t>
         </is>
@@ -584,9 +600,11 @@
           <t>Ministre de la Ville et de l’Aménagement du Territoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par décret présidentiel du 23 août 2017, Ibrahima Koumoura est nommé ministre de la Ville et de l'Aménagement du Territoire[3],[4] jusqu'à la chute du pouvoir le 5 septembre 2021.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par décret présidentiel du 23 août 2017, Ibrahima Koumoura est nommé ministre de la Ville et de l'Aménagement du Territoire, jusqu'à la chute du pouvoir le 5 septembre 2021.
 </t>
         </is>
       </c>
